--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.6141485635407</v>
+        <v>210.8770414227811</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.0769226918247</v>
+        <v>288.5312713129936</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.4092304209532</v>
+        <v>260.9942517351491</v>
       </c>
       <c r="AD2" t="n">
-        <v>150614.1485635407</v>
+        <v>210877.0414227811</v>
       </c>
       <c r="AE2" t="n">
-        <v>206076.9226918247</v>
+        <v>288531.2713129936</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544271098710869e-06</v>
+        <v>3.667985103136599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>186409.2304209532</v>
+        <v>260994.2517351491</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.5791127933458</v>
+        <v>160.7459517707627</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.8769293481468</v>
+        <v>219.9397028235497</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.5230610033924</v>
+        <v>198.9489662734449</v>
       </c>
       <c r="AD3" t="n">
-        <v>117579.1127933458</v>
+        <v>160745.9517707627</v>
       </c>
       <c r="AE3" t="n">
-        <v>160876.9293481468</v>
+        <v>219939.7028235497</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.107244939831283e-06</v>
+        <v>4.479604456015919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>145523.0610033924</v>
+        <v>198948.9662734449</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.0148381030322</v>
+        <v>159.1816770804491</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.736619705932</v>
+        <v>217.7993931813349</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.5870195094865</v>
+        <v>197.012924779539</v>
       </c>
       <c r="AD4" t="n">
-        <v>116014.8381030322</v>
+        <v>159181.6770804491</v>
       </c>
       <c r="AE4" t="n">
-        <v>158736.619705932</v>
+        <v>217799.3931813349</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.156518864065505e-06</v>
+        <v>4.550640919133305e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>143587.0195094865</v>
+        <v>197012.924779539</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3093745125845</v>
+        <v>177.7285749880303</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1903027012532</v>
+        <v>243.1760771298627</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5658246891194</v>
+        <v>219.9676936284269</v>
       </c>
       <c r="AD2" t="n">
-        <v>127309.3745125845</v>
+        <v>177728.5749880303</v>
       </c>
       <c r="AE2" t="n">
-        <v>174190.3027012532</v>
+        <v>243176.0771298627</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.964678687952196e-06</v>
+        <v>4.340178071054196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157565.8246891194</v>
+        <v>219967.6936284269</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.5073636619764</v>
+        <v>152.4238892363988</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.201050203059</v>
+        <v>208.5530897205514</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.7706341837271</v>
+        <v>188.6490755437812</v>
       </c>
       <c r="AD3" t="n">
-        <v>110507.3636619764</v>
+        <v>152423.8892363988</v>
       </c>
       <c r="AE3" t="n">
-        <v>151201.050203059</v>
+        <v>208553.0897205514</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.339383514344675e-06</v>
+        <v>4.888731840889583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>136770.6341837271</v>
+        <v>188649.0755437812</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.84161831603924</v>
+        <v>137.678061987238</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.2394627643938</v>
+        <v>188.3771983382743</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.3323982479743</v>
+        <v>170.3987429179809</v>
       </c>
       <c r="AD2" t="n">
-        <v>98841.61831603924</v>
+        <v>137678.061987238</v>
       </c>
       <c r="AE2" t="n">
-        <v>135239.4627643938</v>
+        <v>188377.1983382743</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.650391404442738e-06</v>
+        <v>5.647606081125134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>122332.3982479743</v>
+        <v>170398.7429179809</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.9778998219371</v>
+        <v>142.9146351800673</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.8989056006216</v>
+        <v>195.5421088020043</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.4517118029922</v>
+        <v>176.8798443830698</v>
       </c>
       <c r="AD2" t="n">
-        <v>102977.8998219371</v>
+        <v>142914.6351800672</v>
       </c>
       <c r="AE2" t="n">
-        <v>140898.9056006216</v>
+        <v>195542.1088020043</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567944709651892e-06</v>
+        <v>5.392213319422275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.401041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>127451.7118029922</v>
+        <v>176879.8443830698</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.1400142585642</v>
+        <v>143.0767496166943</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.1207177247989</v>
+        <v>195.7639209261816</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.6523544893534</v>
+        <v>177.0804870694309</v>
       </c>
       <c r="AD3" t="n">
-        <v>103140.0142585642</v>
+        <v>143076.7496166943</v>
       </c>
       <c r="AE3" t="n">
-        <v>141120.7177247989</v>
+        <v>195763.9209261816</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.566423901541232e-06</v>
+        <v>5.38991493129748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>127652.3544893534</v>
+        <v>177080.4870694309</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.84070604212658</v>
+        <v>141.0228941558296</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.1334822003227</v>
+        <v>192.9537452749199</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.6182867061569</v>
+        <v>174.5385106382184</v>
       </c>
       <c r="AD2" t="n">
-        <v>95840.70604212658</v>
+        <v>141022.8941558297</v>
       </c>
       <c r="AE2" t="n">
-        <v>131133.4822003227</v>
+        <v>192953.7452749199</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646451765941255e-06</v>
+        <v>5.763173223433469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>118618.2867061569</v>
+        <v>174538.5106382184</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.3181377897171</v>
+        <v>181.0778928497867</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.3070253542916</v>
+        <v>247.758761589791</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.2896531100097</v>
+        <v>224.1130131153392</v>
       </c>
       <c r="AD2" t="n">
-        <v>130318.1377897171</v>
+        <v>181077.8928497867</v>
       </c>
       <c r="AE2" t="n">
-        <v>178307.0253542916</v>
+        <v>247758.761589791</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.865995293111897e-06</v>
+        <v>4.178295241904079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>161289.6531100097</v>
+        <v>224113.0131153392</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.1309121321758</v>
+        <v>154.3312331937847</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.4224608458882</v>
+        <v>211.1628018691222</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.7800365125747</v>
+        <v>191.0097204276473</v>
       </c>
       <c r="AD3" t="n">
-        <v>112130.9121321758</v>
+        <v>154331.2331937847</v>
       </c>
       <c r="AE3" t="n">
-        <v>153422.4608458882</v>
+        <v>211162.8018691222</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.284762556733717e-06</v>
+        <v>4.788810293782054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>138780.0365125747</v>
+        <v>191009.7204276473</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.2388703173579</v>
+        <v>154.4391913789667</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.5701739976332</v>
+        <v>211.3105150208672</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.9136521284339</v>
+        <v>191.1433360435065</v>
       </c>
       <c r="AD4" t="n">
-        <v>112238.8703173579</v>
+        <v>154439.1913789667</v>
       </c>
       <c r="AE4" t="n">
-        <v>153570.1739976332</v>
+        <v>211310.5150208672</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.284642908944111e-06</v>
+        <v>4.788635860910089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>138913.6521284339</v>
+        <v>191143.3360435065</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.1165786616882</v>
+        <v>139.2081372208861</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.7204079903618</v>
+        <v>190.4707147751058</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3856883506236</v>
+        <v>172.2924570843506</v>
       </c>
       <c r="AD2" t="n">
-        <v>102116.5786616882</v>
+        <v>139208.1372208861</v>
       </c>
       <c r="AE2" t="n">
-        <v>139720.4079903619</v>
+        <v>190470.7147751058</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567961168932113e-06</v>
+        <v>5.716711898422921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126385.6883506236</v>
+        <v>172292.4570843506</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8284650671229</v>
+        <v>160.9092778309663</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.9545923635457</v>
+        <v>220.1631727445574</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3069961801298</v>
+        <v>199.1511085388337</v>
       </c>
       <c r="AD2" t="n">
-        <v>119828.4650671229</v>
+        <v>160909.2778309663</v>
       </c>
       <c r="AE2" t="n">
-        <v>163954.5923635457</v>
+        <v>220163.1727445574</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.217839144743253e-06</v>
+        <v>4.777986563528939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148306.9961801298</v>
+        <v>199151.1085388337</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.0348781146454</v>
+        <v>148.0303500239172</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.4498422819527</v>
+        <v>202.5416555407668</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.4728748782475</v>
+        <v>183.2113642050125</v>
       </c>
       <c r="AD3" t="n">
-        <v>107034.8781146454</v>
+        <v>148030.3500239172</v>
       </c>
       <c r="AE3" t="n">
-        <v>146449.8422819527</v>
+        <v>202541.6555407668</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.449605761200488e-06</v>
+        <v>5.12212364729718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>132472.8748782475</v>
+        <v>183211.3642050125</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.8012850987598</v>
+        <v>166.5085643609721</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7586241161643</v>
+        <v>227.8243635979953</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4616606917992</v>
+        <v>206.0811260897708</v>
       </c>
       <c r="AD2" t="n">
-        <v>124801.2850987598</v>
+        <v>166508.5643609721</v>
       </c>
       <c r="AE2" t="n">
-        <v>170758.6241161643</v>
+        <v>227824.3635979953</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051120990520745e-06</v>
+        <v>4.486497913463682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>154461.6606917992</v>
+        <v>206081.1260897708</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.5538635967492</v>
+        <v>151.1758020043899</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.8964293483618</v>
+        <v>206.8454017079952</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.5905245123548</v>
+        <v>187.1043668783877</v>
       </c>
       <c r="AD3" t="n">
-        <v>109553.8635967492</v>
+        <v>151175.8020043899</v>
       </c>
       <c r="AE3" t="n">
-        <v>149896.4293483618</v>
+        <v>206845.4017079952</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.370712324759919e-06</v>
+        <v>4.956438587294651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>135590.5245123548</v>
+        <v>187104.3668783877</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.9160397102184</v>
+        <v>198.4080109601928</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.0170070096634</v>
+        <v>271.4705937392885</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.8322259898595</v>
+        <v>245.5618212842616</v>
       </c>
       <c r="AD2" t="n">
-        <v>146916.0397102184</v>
+        <v>198408.0109601928</v>
       </c>
       <c r="AE2" t="n">
-        <v>201017.0070096634</v>
+        <v>271470.5937392885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636770779692074e-06</v>
+        <v>3.814807470437296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>181832.2259898595</v>
+        <v>245561.8212842616</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0803547935156</v>
+        <v>159.9903308351609</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.1945066491294</v>
+        <v>218.9058289238169</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.9057677689827</v>
+        <v>198.0137638476512</v>
       </c>
       <c r="AD3" t="n">
-        <v>117080.3547935156</v>
+        <v>159990.3308351609</v>
       </c>
       <c r="AE3" t="n">
-        <v>160194.5066491294</v>
+        <v>218905.8289238169</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.112414874689397e-06</v>
+        <v>4.50295627003719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>144905.7677689827</v>
+        <v>198013.7638476512</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.327389390055</v>
+        <v>157.2373654317004</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.4277779318546</v>
+        <v>215.1391002065422</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.4985303538465</v>
+        <v>194.606526432515</v>
       </c>
       <c r="AD4" t="n">
-        <v>114327.389390055</v>
+        <v>157237.3654317004</v>
       </c>
       <c r="AE4" t="n">
-        <v>156427.7779318547</v>
+        <v>215139.1002065422</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.216667891356054e-06</v>
+        <v>4.653786668287443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>141498.5303538466</v>
+        <v>194606.5264325149</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.6861972730505</v>
+        <v>144.9946512384524</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2362735379984</v>
+        <v>198.3880785369176</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.566004624943</v>
+        <v>179.4541987608275</v>
       </c>
       <c r="AD2" t="n">
-        <v>104686.1972730505</v>
+        <v>144994.6512384524</v>
       </c>
       <c r="AE2" t="n">
-        <v>143236.2735379984</v>
+        <v>198388.0785369176</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.505625504897077e-06</v>
+        <v>5.264343883271958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>129566.004624943</v>
+        <v>179454.1987608275</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.5570256187342</v>
+        <v>144.8654795841361</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.0595351819117</v>
+        <v>198.211340180831</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.4061339295074</v>
+        <v>179.2943280653918</v>
       </c>
       <c r="AD3" t="n">
-        <v>104557.0256187342</v>
+        <v>144865.4795841361</v>
       </c>
       <c r="AE3" t="n">
-        <v>143059.5351819117</v>
+        <v>198211.340180831</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.51909056855357e-06</v>
+        <v>5.284564162191914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>129406.1339295074</v>
+        <v>179294.3280653918</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.96081756168601</v>
+        <v>139.0811853214955</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.7708005478729</v>
+        <v>190.2970135856372</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.7175873026447</v>
+        <v>172.1353336926136</v>
       </c>
       <c r="AD2" t="n">
-        <v>99960.81756168601</v>
+        <v>139081.1853214955</v>
       </c>
       <c r="AE2" t="n">
-        <v>136770.8005478729</v>
+        <v>190297.0135856372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.644169607980438e-06</v>
+        <v>5.589233288613594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>123717.5873026447</v>
+        <v>172135.3336926136</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.46611888778895</v>
+        <v>135.8074193382455</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.3574437639107</v>
+        <v>185.8177025389948</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.6299964994664</v>
+        <v>168.0835218055089</v>
       </c>
       <c r="AD2" t="n">
-        <v>97466.11888778895</v>
+        <v>135807.4193382455</v>
       </c>
       <c r="AE2" t="n">
-        <v>133357.4437639106</v>
+        <v>185817.7025389948</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646245021294966e-06</v>
+        <v>5.697185922257452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>120629.9964994664</v>
+        <v>168083.5218055089</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0736679154115</v>
+        <v>151.6536126698069</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8711603155318</v>
+        <v>207.4991633399372</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7585443135346</v>
+        <v>187.6957344177375</v>
       </c>
       <c r="AD2" t="n">
-        <v>108073.6679154115</v>
+        <v>151653.6126698069</v>
       </c>
       <c r="AE2" t="n">
-        <v>147871.1603155318</v>
+        <v>207499.1633399372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.412400533619734e-06</v>
+        <v>5.561107706202855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133758.5443135346</v>
+        <v>187695.7344177375</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.032679579785</v>
+        <v>165.4334064298698</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7069841366211</v>
+        <v>226.3532850840415</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5103877559173</v>
+        <v>204.7504452445166</v>
       </c>
       <c r="AD2" t="n">
-        <v>124032.6795797849</v>
+        <v>165433.4064298698</v>
       </c>
       <c r="AE2" t="n">
-        <v>169706.9841366211</v>
+        <v>226353.2850840415</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.0628201563172e-06</v>
+        <v>4.52495170740108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>153510.3877559173</v>
+        <v>204750.4452445166</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.1838050993576</v>
+        <v>149.4991910948708</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.0218548695165</v>
+        <v>204.5513886947393</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.8948567907881</v>
+        <v>185.0292912474487</v>
       </c>
       <c r="AD3" t="n">
-        <v>108183.8050993576</v>
+        <v>149499.1910948708</v>
       </c>
       <c r="AE3" t="n">
-        <v>148021.8548695164</v>
+        <v>204551.3886947393</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.417212929693399e-06</v>
+        <v>5.048524788135748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>133894.8567907881</v>
+        <v>185029.2912474487</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.527218341249</v>
+        <v>185.1722220533327</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.0120279915089</v>
+        <v>253.3608034351362</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.4003537411547</v>
+        <v>229.1804039494815</v>
       </c>
       <c r="AD2" t="n">
-        <v>142527.218341249</v>
+        <v>185172.2220533327</v>
       </c>
       <c r="AE2" t="n">
-        <v>195012.0279915089</v>
+        <v>253360.8034351362</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.759481671235332e-06</v>
+        <v>4.007233782163568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176400.3537411547</v>
+        <v>229180.4039494815</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.5976479519069</v>
+        <v>156.2425621554395</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.4293135022607</v>
+        <v>213.7779664763397</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.5953579680591</v>
+        <v>193.3752973951594</v>
       </c>
       <c r="AD3" t="n">
-        <v>113597.6479519069</v>
+        <v>156242.5621554395</v>
       </c>
       <c r="AE3" t="n">
-        <v>155429.3135022607</v>
+        <v>213777.9664763397</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.226745708277648e-06</v>
+        <v>4.685780138874054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>140595.3579680591</v>
+        <v>193375.2973951594</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.1970717082586</v>
+        <v>155.671393711199</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.8812274135248</v>
+        <v>212.9964686127569</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.0995804463883</v>
+        <v>192.6683845908375</v>
       </c>
       <c r="AD4" t="n">
-        <v>113197.0717082586</v>
+        <v>155671.3937111991</v>
       </c>
       <c r="AE4" t="n">
-        <v>154881.2274135248</v>
+        <v>212996.4686127569</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.255665024948778e-06</v>
+        <v>4.727775874497027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>140099.5804463883</v>
+        <v>192668.3845908375</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.877882506882</v>
+        <v>163.6021894441375</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8127427834535</v>
+        <v>223.8477332165721</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.9421932968014</v>
+        <v>202.4840197307136</v>
       </c>
       <c r="AD2" t="n">
-        <v>113877.882506882</v>
+        <v>163602.1894441375</v>
       </c>
       <c r="AE2" t="n">
-        <v>155812.7427834535</v>
+        <v>223847.7332165721</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.061630201821584e-06</v>
+        <v>5.103555137442814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>140942.1932968014</v>
+        <v>202484.0197307136</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.537914165178</v>
+        <v>141.0800268436647</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.9286536973612</v>
+        <v>193.031916738932</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.6694979761125</v>
+        <v>174.6092215274196</v>
       </c>
       <c r="AD2" t="n">
-        <v>101537.914165178</v>
+        <v>141080.0268436646</v>
       </c>
       <c r="AE2" t="n">
-        <v>138928.6536973612</v>
+        <v>193031.916738932</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606886376189287e-06</v>
+        <v>5.489344259720777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>125669.4979761125</v>
+        <v>174609.2215274196</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7472843575582</v>
+        <v>148.5783901227136</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4245879326509</v>
+        <v>203.2915081817625</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3545921721074</v>
+        <v>183.8896519623766</v>
       </c>
       <c r="AD2" t="n">
-        <v>107747.2843575582</v>
+        <v>148578.3901227136</v>
       </c>
       <c r="AE2" t="n">
-        <v>147424.5879326509</v>
+        <v>203291.5081817625</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.373947794809603e-06</v>
+        <v>5.037002743941016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>133354.5921721074</v>
+        <v>183889.6519623766</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.9069889549718</v>
+        <v>146.5675025195349</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.9066145747301</v>
+        <v>200.540123048995</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.076930657468</v>
+        <v>181.4008551650862</v>
       </c>
       <c r="AD3" t="n">
-        <v>105906.9889549718</v>
+        <v>146567.5025195349</v>
       </c>
       <c r="AE3" t="n">
-        <v>144906.6145747301</v>
+        <v>200540.123048995</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476532430608337e-06</v>
+        <v>5.190152443767232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>131076.930657468</v>
+        <v>181400.8551650862</v>
       </c>
     </row>
   </sheetData>
